--- a/ONCHO/Entomological survey Survey/Nigeria/2023/nov/ng_oncho_bsc_202311_capture_sokoto.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2023/nov/ng_oncho_bsc_202311_capture_sokoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2023\nov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAB73A6-FB12-4A56-B228-7F3225424734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310CC7D2-EB5F-4C3E-ABB8-D3F3E42C481B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
     <t>begin repeat</t>
   </si>
   <si>
-    <t>s_</t>
-  </si>
-  <si>
     <t>Black flies collection</t>
   </si>
   <si>
@@ -356,12 +353,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>ng_oncho_bsc_202311_capture_sokoto</t>
-  </si>
-  <si>
-    <t>(2023 November) - Sokoto: Human Landing Catches</t>
-  </si>
-  <si>
     <t>Sokoto</t>
   </si>
   <si>
@@ -528,6 +519,15 @@
   </si>
   <si>
     <t>SOK_RAB_M_023</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>(2023 November) - Sokoto: Human Landing Catches V1</t>
+  </si>
+  <si>
+    <t>ng_oncho_bsc_202311_capture_sokoto_v1</t>
   </si>
 </sst>
 </file>
@@ -971,7 +971,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H14:H19"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1040,7 +1040,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="14"/>
@@ -1061,7 +1061,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="16"/>
@@ -1103,13 +1103,13 @@
     </row>
     <row r="5" spans="1:13" s="12" customFormat="1">
       <c r="A5" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>21</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="6" spans="1:13" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>25</v>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="12" customFormat="1">
@@ -1157,7 +1157,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>29</v>
@@ -1196,13 +1196,13 @@
     </row>
     <row r="9" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>32</v>
@@ -1283,10 +1283,10 @@
         <v>40</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>42</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
@@ -1299,13 +1299,13 @@
     </row>
     <row r="14" spans="1:13" s="12" customFormat="1">
       <c r="A14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="16"/>
@@ -1320,13 +1320,13 @@
     </row>
     <row r="15" spans="1:13" s="12" customFormat="1">
       <c r="A15" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="16"/>
@@ -1341,13 +1341,13 @@
     </row>
     <row r="16" spans="1:13" s="12" customFormat="1" ht="31.5">
       <c r="A16" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="16"/>
@@ -1362,13 +1362,13 @@
     </row>
     <row r="17" spans="1:12" s="12" customFormat="1" ht="31.5">
       <c r="A17" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="16"/>
@@ -1383,13 +1383,13 @@
     </row>
     <row r="18" spans="1:12" s="12" customFormat="1">
       <c r="A18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="16"/>
@@ -1407,10 +1407,10 @@
         <v>23</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="16"/>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="20" spans="1:12" s="12" customFormat="1">
       <c r="A20" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1437,10 +1437,10 @@
     </row>
     <row r="21" spans="1:12" s="12" customFormat="1">
       <c r="A21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -1454,10 +1454,10 @@
     </row>
     <row r="22" spans="1:12" s="12" customFormat="1">
       <c r="A22" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -1494,7 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A84" sqref="A84:A89"/>
     </sheetView>
@@ -1510,7 +1510,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1519,1099 +1519,1099 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="C13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E44" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E49" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E50" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E51" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C52" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E52" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E54" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E55" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C56" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E56" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E57" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E58" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E59" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" t="s">
         <v>119</v>
-      </c>
-      <c r="C64" t="s">
-        <v>119</v>
-      </c>
-      <c r="E64" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C65" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F67" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F68" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F69" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F70" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F71" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F72" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F73" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F74" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F76" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C79" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C80" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F80" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F82" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C83" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F83" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C84" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F84" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C85" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F85" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C86" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F86" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C87" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F87" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C88" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F88" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C89" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F89" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2627,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2639,24 +2639,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/Entomological survey Survey/Nigeria/2023/nov/ng_oncho_bsc_202311_capture_sokoto.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2023/nov/ng_oncho_bsc_202311_capture_sokoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2023\nov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310CC7D2-EB5F-4C3E-ABB8-D3F3E42C481B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BD38DC-3B21-4682-A75E-C8CCF7261A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="197">
   <si>
     <t>type</t>
   </si>
@@ -362,9 +362,6 @@
     <t>Dange-Shuni</t>
   </si>
   <si>
-    <t>Fakai</t>
-  </si>
-  <si>
     <t>Goronyo</t>
   </si>
   <si>
@@ -407,9 +404,6 @@
     <t>Tudun Danjeka</t>
   </si>
   <si>
-    <t>Ijarua</t>
-  </si>
-  <si>
     <t>Boyekai</t>
   </si>
   <si>
@@ -428,9 +422,6 @@
     <t>Asarara Kaura</t>
   </si>
   <si>
-    <t>Nasarawa</t>
-  </si>
-  <si>
     <t>Sangiwa</t>
   </si>
   <si>
@@ -440,9 +431,6 @@
     <t>Yarstakuwa</t>
   </si>
   <si>
-    <t>Kasabuni</t>
-  </si>
-  <si>
     <t>Tanera</t>
   </si>
   <si>
@@ -503,9 +491,6 @@
     <t>SOK_KEB_M_017</t>
   </si>
   <si>
-    <t>SOK_FAK_M_018</t>
-  </si>
-  <si>
     <t>SOK_SIL_M_019</t>
   </si>
   <si>
@@ -521,13 +506,124 @@
     <t>SOK_RAB_M_023</t>
   </si>
   <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>(2023 November) - Sokoto: Human Landing Catches V1</t>
-  </si>
-  <si>
-    <t>ng_oncho_bsc_202311_capture_sokoto_v1</t>
+    <t>ng_oncho_bsc_202311_capture_sokoto_v2</t>
+  </si>
+  <si>
+    <t>(2023 November) - Sokoto: Human Landing Catches V2</t>
+  </si>
+  <si>
+    <t>Kware</t>
+  </si>
+  <si>
+    <t>Tangaza</t>
+  </si>
+  <si>
+    <t>Wamakko</t>
+  </si>
+  <si>
+    <t>Shinaka</t>
+  </si>
+  <si>
+    <t>Taloka</t>
+  </si>
+  <si>
+    <t>Karfen Chana</t>
+  </si>
+  <si>
+    <t>Gidan Katta</t>
+  </si>
+  <si>
+    <t>Sonani</t>
+  </si>
+  <si>
+    <t>Kunkuru</t>
+  </si>
+  <si>
+    <t>Margai</t>
+  </si>
+  <si>
+    <t>Tungar Minday</t>
+  </si>
+  <si>
+    <t>Durbawa</t>
+  </si>
+  <si>
+    <t>Gangare</t>
+  </si>
+  <si>
+    <t>Shinaka Shiya Ubandawaki</t>
+  </si>
+  <si>
+    <t>Kumbula</t>
+  </si>
+  <si>
+    <t>Makuwana</t>
+  </si>
+  <si>
+    <t>Yarbulutu</t>
+  </si>
+  <si>
+    <t>Angwan Saka</t>
+  </si>
+  <si>
+    <t>Kaya</t>
+  </si>
+  <si>
+    <t>Gidan Madi</t>
+  </si>
+  <si>
+    <t>Yarume Rafi</t>
+  </si>
+  <si>
+    <t>SOK_SAB_N_024</t>
+  </si>
+  <si>
+    <t>SOK_GOR_N_025</t>
+  </si>
+  <si>
+    <t>SOK_GOR_N_026</t>
+  </si>
+  <si>
+    <t>SOK_RAB_N_027</t>
+  </si>
+  <si>
+    <t>SOK_RAB_N_028</t>
+  </si>
+  <si>
+    <t>SOK_TAM_N_029</t>
+  </si>
+  <si>
+    <t>SOK_KEB_N_030</t>
+  </si>
+  <si>
+    <t>SOK_KEB_N_031</t>
+  </si>
+  <si>
+    <t>SOK_GUD_N_032</t>
+  </si>
+  <si>
+    <t>SOK_TAN_N_033</t>
+  </si>
+  <si>
+    <t>SOK_SIL_N_034</t>
+  </si>
+  <si>
+    <t>SOK_ILL_N_035</t>
+  </si>
+  <si>
+    <t>SOK_ILL_N_036</t>
+  </si>
+  <si>
+    <t>SOK_WAM_N_037</t>
+  </si>
+  <si>
+    <t>SOK_KWA_N_038</t>
+  </si>
+  <si>
+    <t>SOK_KWA_N_039</t>
+  </si>
+  <si>
+    <t>ss_2</t>
   </si>
 </sst>
 </file>
@@ -967,7 +1063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1283,7 +1379,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>41</v>
@@ -1492,11 +1588,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84:A89"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1877,10 +1973,10 @@
         <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>106</v>
@@ -1891,10 +1987,10 @@
         <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>106</v>
@@ -1905,10 +2001,10 @@
         <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>106</v>
@@ -1919,10 +2015,10 @@
         <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
         <v>106</v>
@@ -1933,10 +2029,10 @@
         <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" t="s">
         <v>106</v>
@@ -1947,10 +2043,10 @@
         <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
         <v>106</v>
@@ -1961,41 +2057,41 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D41" t="s">
         <v>106</v>
       </c>
     </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" t="s">
+        <v>106</v>
+      </c>
+    </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" t="s">
-        <v>107</v>
+        <v>161</v>
+      </c>
+      <c r="D43" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2003,13 +2099,13 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2017,13 +2113,13 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2031,13 +2127,13 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2045,13 +2141,13 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2059,13 +2155,13 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2073,13 +2169,13 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="E50" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2087,13 +2183,13 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2101,13 +2197,13 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2115,13 +2211,13 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="E53" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2129,13 +2225,13 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="E54" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2143,13 +2239,13 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E55" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2157,13 +2253,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="E56" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2171,13 +2267,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2185,13 +2281,13 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2199,13 +2295,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2213,13 +2309,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2227,13 +2323,13 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="E61" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2241,13 +2337,13 @@
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2255,13 +2351,13 @@
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="E63" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2269,265 +2365,265 @@
         <v>58</v>
       </c>
       <c r="B64" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" t="s">
+        <v>172</v>
+      </c>
+      <c r="E67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" t="s">
+        <v>174</v>
+      </c>
+      <c r="E71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" t="s">
+        <v>175</v>
+      </c>
+      <c r="E72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" t="s">
         <v>116</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C73" t="s">
         <v>116</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" t="s">
+        <v>132</v>
+      </c>
+      <c r="E75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" t="s">
+        <v>133</v>
+      </c>
+      <c r="E76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77" t="s">
+        <v>177</v>
+      </c>
+      <c r="C77" t="s">
+        <v>177</v>
+      </c>
+      <c r="E77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" t="s">
+        <v>134</v>
+      </c>
+      <c r="E78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>58</v>
+      </c>
+      <c r="B79" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" t="s">
+        <v>115</v>
+      </c>
+      <c r="E79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" t="s">
-        <v>120</v>
-      </c>
-      <c r="C65" t="s">
-        <v>120</v>
-      </c>
-      <c r="E65" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" t="s">
-        <v>139</v>
-      </c>
-      <c r="F67" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B68" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" t="s">
-        <v>140</v>
-      </c>
-      <c r="F68" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B69" t="s">
-        <v>141</v>
-      </c>
-      <c r="C69" t="s">
-        <v>141</v>
-      </c>
-      <c r="F69" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" t="s">
-        <v>142</v>
-      </c>
-      <c r="F70" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B71" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" t="s">
-        <v>143</v>
-      </c>
-      <c r="F71" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B72" t="s">
-        <v>144</v>
-      </c>
-      <c r="C72" t="s">
-        <v>144</v>
-      </c>
-      <c r="F72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B73" t="s">
-        <v>145</v>
-      </c>
-      <c r="C73" t="s">
-        <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B74" t="s">
-        <v>146</v>
-      </c>
-      <c r="C74" t="s">
-        <v>146</v>
-      </c>
-      <c r="F74" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B75" t="s">
-        <v>147</v>
-      </c>
-      <c r="C75" t="s">
-        <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B76" t="s">
-        <v>148</v>
-      </c>
-      <c r="C76" t="s">
-        <v>148</v>
-      </c>
-      <c r="F76" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B77" t="s">
-        <v>149</v>
-      </c>
-      <c r="C77" t="s">
-        <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B78" t="s">
-        <v>150</v>
-      </c>
-      <c r="C78" t="s">
-        <v>150</v>
-      </c>
-      <c r="F78" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B79" t="s">
-        <v>151</v>
-      </c>
-      <c r="C79" t="s">
-        <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B80" t="s">
-        <v>152</v>
-      </c>
-      <c r="C80" t="s">
-        <v>152</v>
-      </c>
-      <c r="F80" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B81" t="s">
-        <v>153</v>
-      </c>
       <c r="C81" t="s">
-        <v>153</v>
-      </c>
-      <c r="F81" t="s">
-        <v>137</v>
+        <v>119</v>
+      </c>
+      <c r="E81" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="13" t="s">
-        <v>94</v>
+      <c r="A82" t="s">
+        <v>58</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="C82" t="s">
-        <v>154</v>
-      </c>
-      <c r="F82" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B83" t="s">
-        <v>155</v>
-      </c>
-      <c r="C83" t="s">
-        <v>155</v>
-      </c>
-      <c r="F83" t="s">
-        <v>131</v>
+        <v>179</v>
+      </c>
+      <c r="E82" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2535,13 +2631,13 @@
         <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="C84" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="F84" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2549,13 +2645,13 @@
         <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C85" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="F85" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2563,13 +2659,13 @@
         <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C86" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F86" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2577,13 +2673,13 @@
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C87" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="F87" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2591,13 +2687,13 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C88" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="F88" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2605,18 +2701,466 @@
         <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C89" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="F89" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" t="s">
+        <v>141</v>
+      </c>
+      <c r="F90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" t="s">
+        <v>142</v>
+      </c>
+      <c r="F91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>143</v>
+      </c>
+      <c r="C92" t="s">
+        <v>143</v>
+      </c>
+      <c r="F92" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" t="s">
+        <v>144</v>
+      </c>
+      <c r="F93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>145</v>
+      </c>
+      <c r="C94" t="s">
+        <v>145</v>
+      </c>
+      <c r="F94" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>146</v>
+      </c>
+      <c r="C95" t="s">
+        <v>146</v>
+      </c>
+      <c r="F95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>147</v>
+      </c>
+      <c r="C96" t="s">
+        <v>147</v>
+      </c>
+      <c r="F96" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C97" t="s">
+        <v>148</v>
+      </c>
+      <c r="F97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" t="s">
+        <v>149</v>
+      </c>
+      <c r="F98" t="s">
         <v>133</v>
       </c>
     </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" t="s">
+        <v>150</v>
+      </c>
+      <c r="C99" t="s">
+        <v>150</v>
+      </c>
+      <c r="F99" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" t="s">
+        <v>151</v>
+      </c>
+      <c r="C100" t="s">
+        <v>151</v>
+      </c>
+      <c r="F100" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" t="s">
+        <v>152</v>
+      </c>
+      <c r="C101" t="s">
+        <v>152</v>
+      </c>
+      <c r="F101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B102" t="s">
+        <v>153</v>
+      </c>
+      <c r="C102" t="s">
+        <v>153</v>
+      </c>
+      <c r="F102" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" t="s">
+        <v>154</v>
+      </c>
+      <c r="C103" t="s">
+        <v>154</v>
+      </c>
+      <c r="F103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B104" t="s">
+        <v>155</v>
+      </c>
+      <c r="C104" t="s">
+        <v>155</v>
+      </c>
+      <c r="F104" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B105" t="s">
+        <v>156</v>
+      </c>
+      <c r="C105" t="s">
+        <v>156</v>
+      </c>
+      <c r="F105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B106" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106" t="s">
+        <v>180</v>
+      </c>
+      <c r="F106" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B107" t="s">
+        <v>181</v>
+      </c>
+      <c r="C107" t="s">
+        <v>181</v>
+      </c>
+      <c r="F107" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B108" t="s">
+        <v>182</v>
+      </c>
+      <c r="C108" t="s">
+        <v>182</v>
+      </c>
+      <c r="F108" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B109" t="s">
+        <v>183</v>
+      </c>
+      <c r="C109" t="s">
+        <v>183</v>
+      </c>
+      <c r="F109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B110" t="s">
+        <v>184</v>
+      </c>
+      <c r="C110" t="s">
+        <v>184</v>
+      </c>
+      <c r="F110" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B111" t="s">
+        <v>185</v>
+      </c>
+      <c r="C111" t="s">
+        <v>185</v>
+      </c>
+      <c r="F111" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B112" t="s">
+        <v>186</v>
+      </c>
+      <c r="C112" t="s">
+        <v>186</v>
+      </c>
+      <c r="F112" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B113" t="s">
+        <v>187</v>
+      </c>
+      <c r="C113" t="s">
+        <v>187</v>
+      </c>
+      <c r="F113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B114" t="s">
+        <v>188</v>
+      </c>
+      <c r="C114" t="s">
+        <v>188</v>
+      </c>
+      <c r="F114" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B115" t="s">
+        <v>189</v>
+      </c>
+      <c r="C115" t="s">
+        <v>189</v>
+      </c>
+      <c r="F115" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B116" t="s">
+        <v>190</v>
+      </c>
+      <c r="C116" t="s">
+        <v>190</v>
+      </c>
+      <c r="F116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B117" t="s">
+        <v>191</v>
+      </c>
+      <c r="C117" t="s">
+        <v>191</v>
+      </c>
+      <c r="F117" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B118" t="s">
+        <v>192</v>
+      </c>
+      <c r="C118" t="s">
+        <v>192</v>
+      </c>
+      <c r="F118" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B119" t="s">
+        <v>193</v>
+      </c>
+      <c r="C119" t="s">
+        <v>193</v>
+      </c>
+      <c r="F119" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B120" t="s">
+        <v>194</v>
+      </c>
+      <c r="C120" t="s">
+        <v>194</v>
+      </c>
+      <c r="F120" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B121" t="s">
+        <v>195</v>
+      </c>
+      <c r="C121" t="s">
+        <v>195</v>
+      </c>
+      <c r="F121" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A55:B79">
-    <sortCondition ref="B55:B79"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A57:B96">
+    <sortCondition ref="B57:B96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2627,8 +3171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2650,10 +3194,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>80</v>
